--- a/party/upload/Excel模板/首次组织谈话.xlsx
+++ b/party/upload/Excel模板/首次组织谈话.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>未谈话入党申请人名单</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -67,6 +67,10 @@
   <si>
     <t>男</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -488,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -496,330 +500,331 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="15.625" customWidth="1"/>
-    <col min="257" max="257" width="24.75" customWidth="1"/>
-    <col min="258" max="258" width="8.875" customWidth="1"/>
-    <col min="259" max="259" width="9.875" customWidth="1"/>
-    <col min="261" max="261" width="15.5" customWidth="1"/>
-    <col min="262" max="264" width="15.625" customWidth="1"/>
-    <col min="513" max="513" width="24.75" customWidth="1"/>
-    <col min="514" max="514" width="8.875" customWidth="1"/>
-    <col min="515" max="515" width="9.875" customWidth="1"/>
-    <col min="517" max="517" width="15.5" customWidth="1"/>
-    <col min="518" max="520" width="15.625" customWidth="1"/>
-    <col min="769" max="769" width="24.75" customWidth="1"/>
-    <col min="770" max="770" width="8.875" customWidth="1"/>
-    <col min="771" max="771" width="9.875" customWidth="1"/>
-    <col min="773" max="773" width="15.5" customWidth="1"/>
-    <col min="774" max="776" width="15.625" customWidth="1"/>
-    <col min="1025" max="1025" width="24.75" customWidth="1"/>
-    <col min="1026" max="1026" width="8.875" customWidth="1"/>
-    <col min="1027" max="1027" width="9.875" customWidth="1"/>
-    <col min="1029" max="1029" width="15.5" customWidth="1"/>
-    <col min="1030" max="1032" width="15.625" customWidth="1"/>
-    <col min="1281" max="1281" width="24.75" customWidth="1"/>
-    <col min="1282" max="1282" width="8.875" customWidth="1"/>
-    <col min="1283" max="1283" width="9.875" customWidth="1"/>
-    <col min="1285" max="1285" width="15.5" customWidth="1"/>
-    <col min="1286" max="1288" width="15.625" customWidth="1"/>
-    <col min="1537" max="1537" width="24.75" customWidth="1"/>
-    <col min="1538" max="1538" width="8.875" customWidth="1"/>
-    <col min="1539" max="1539" width="9.875" customWidth="1"/>
-    <col min="1541" max="1541" width="15.5" customWidth="1"/>
-    <col min="1542" max="1544" width="15.625" customWidth="1"/>
-    <col min="1793" max="1793" width="24.75" customWidth="1"/>
-    <col min="1794" max="1794" width="8.875" customWidth="1"/>
-    <col min="1795" max="1795" width="9.875" customWidth="1"/>
-    <col min="1797" max="1797" width="15.5" customWidth="1"/>
-    <col min="1798" max="1800" width="15.625" customWidth="1"/>
-    <col min="2049" max="2049" width="24.75" customWidth="1"/>
-    <col min="2050" max="2050" width="8.875" customWidth="1"/>
-    <col min="2051" max="2051" width="9.875" customWidth="1"/>
-    <col min="2053" max="2053" width="15.5" customWidth="1"/>
-    <col min="2054" max="2056" width="15.625" customWidth="1"/>
-    <col min="2305" max="2305" width="24.75" customWidth="1"/>
-    <col min="2306" max="2306" width="8.875" customWidth="1"/>
-    <col min="2307" max="2307" width="9.875" customWidth="1"/>
-    <col min="2309" max="2309" width="15.5" customWidth="1"/>
-    <col min="2310" max="2312" width="15.625" customWidth="1"/>
-    <col min="2561" max="2561" width="24.75" customWidth="1"/>
-    <col min="2562" max="2562" width="8.875" customWidth="1"/>
-    <col min="2563" max="2563" width="9.875" customWidth="1"/>
-    <col min="2565" max="2565" width="15.5" customWidth="1"/>
-    <col min="2566" max="2568" width="15.625" customWidth="1"/>
-    <col min="2817" max="2817" width="24.75" customWidth="1"/>
-    <col min="2818" max="2818" width="8.875" customWidth="1"/>
-    <col min="2819" max="2819" width="9.875" customWidth="1"/>
-    <col min="2821" max="2821" width="15.5" customWidth="1"/>
-    <col min="2822" max="2824" width="15.625" customWidth="1"/>
-    <col min="3073" max="3073" width="24.75" customWidth="1"/>
-    <col min="3074" max="3074" width="8.875" customWidth="1"/>
-    <col min="3075" max="3075" width="9.875" customWidth="1"/>
-    <col min="3077" max="3077" width="15.5" customWidth="1"/>
-    <col min="3078" max="3080" width="15.625" customWidth="1"/>
-    <col min="3329" max="3329" width="24.75" customWidth="1"/>
-    <col min="3330" max="3330" width="8.875" customWidth="1"/>
-    <col min="3331" max="3331" width="9.875" customWidth="1"/>
-    <col min="3333" max="3333" width="15.5" customWidth="1"/>
-    <col min="3334" max="3336" width="15.625" customWidth="1"/>
-    <col min="3585" max="3585" width="24.75" customWidth="1"/>
-    <col min="3586" max="3586" width="8.875" customWidth="1"/>
-    <col min="3587" max="3587" width="9.875" customWidth="1"/>
-    <col min="3589" max="3589" width="15.5" customWidth="1"/>
-    <col min="3590" max="3592" width="15.625" customWidth="1"/>
-    <col min="3841" max="3841" width="24.75" customWidth="1"/>
-    <col min="3842" max="3842" width="8.875" customWidth="1"/>
-    <col min="3843" max="3843" width="9.875" customWidth="1"/>
-    <col min="3845" max="3845" width="15.5" customWidth="1"/>
-    <col min="3846" max="3848" width="15.625" customWidth="1"/>
-    <col min="4097" max="4097" width="24.75" customWidth="1"/>
-    <col min="4098" max="4098" width="8.875" customWidth="1"/>
-    <col min="4099" max="4099" width="9.875" customWidth="1"/>
-    <col min="4101" max="4101" width="15.5" customWidth="1"/>
-    <col min="4102" max="4104" width="15.625" customWidth="1"/>
-    <col min="4353" max="4353" width="24.75" customWidth="1"/>
-    <col min="4354" max="4354" width="8.875" customWidth="1"/>
-    <col min="4355" max="4355" width="9.875" customWidth="1"/>
-    <col min="4357" max="4357" width="15.5" customWidth="1"/>
-    <col min="4358" max="4360" width="15.625" customWidth="1"/>
-    <col min="4609" max="4609" width="24.75" customWidth="1"/>
-    <col min="4610" max="4610" width="8.875" customWidth="1"/>
-    <col min="4611" max="4611" width="9.875" customWidth="1"/>
-    <col min="4613" max="4613" width="15.5" customWidth="1"/>
-    <col min="4614" max="4616" width="15.625" customWidth="1"/>
-    <col min="4865" max="4865" width="24.75" customWidth="1"/>
-    <col min="4866" max="4866" width="8.875" customWidth="1"/>
-    <col min="4867" max="4867" width="9.875" customWidth="1"/>
-    <col min="4869" max="4869" width="15.5" customWidth="1"/>
-    <col min="4870" max="4872" width="15.625" customWidth="1"/>
-    <col min="5121" max="5121" width="24.75" customWidth="1"/>
-    <col min="5122" max="5122" width="8.875" customWidth="1"/>
-    <col min="5123" max="5123" width="9.875" customWidth="1"/>
-    <col min="5125" max="5125" width="15.5" customWidth="1"/>
-    <col min="5126" max="5128" width="15.625" customWidth="1"/>
-    <col min="5377" max="5377" width="24.75" customWidth="1"/>
-    <col min="5378" max="5378" width="8.875" customWidth="1"/>
-    <col min="5379" max="5379" width="9.875" customWidth="1"/>
-    <col min="5381" max="5381" width="15.5" customWidth="1"/>
-    <col min="5382" max="5384" width="15.625" customWidth="1"/>
-    <col min="5633" max="5633" width="24.75" customWidth="1"/>
-    <col min="5634" max="5634" width="8.875" customWidth="1"/>
-    <col min="5635" max="5635" width="9.875" customWidth="1"/>
-    <col min="5637" max="5637" width="15.5" customWidth="1"/>
-    <col min="5638" max="5640" width="15.625" customWidth="1"/>
-    <col min="5889" max="5889" width="24.75" customWidth="1"/>
-    <col min="5890" max="5890" width="8.875" customWidth="1"/>
-    <col min="5891" max="5891" width="9.875" customWidth="1"/>
-    <col min="5893" max="5893" width="15.5" customWidth="1"/>
-    <col min="5894" max="5896" width="15.625" customWidth="1"/>
-    <col min="6145" max="6145" width="24.75" customWidth="1"/>
-    <col min="6146" max="6146" width="8.875" customWidth="1"/>
-    <col min="6147" max="6147" width="9.875" customWidth="1"/>
-    <col min="6149" max="6149" width="15.5" customWidth="1"/>
-    <col min="6150" max="6152" width="15.625" customWidth="1"/>
-    <col min="6401" max="6401" width="24.75" customWidth="1"/>
-    <col min="6402" max="6402" width="8.875" customWidth="1"/>
-    <col min="6403" max="6403" width="9.875" customWidth="1"/>
-    <col min="6405" max="6405" width="15.5" customWidth="1"/>
-    <col min="6406" max="6408" width="15.625" customWidth="1"/>
-    <col min="6657" max="6657" width="24.75" customWidth="1"/>
-    <col min="6658" max="6658" width="8.875" customWidth="1"/>
-    <col min="6659" max="6659" width="9.875" customWidth="1"/>
-    <col min="6661" max="6661" width="15.5" customWidth="1"/>
-    <col min="6662" max="6664" width="15.625" customWidth="1"/>
-    <col min="6913" max="6913" width="24.75" customWidth="1"/>
-    <col min="6914" max="6914" width="8.875" customWidth="1"/>
-    <col min="6915" max="6915" width="9.875" customWidth="1"/>
-    <col min="6917" max="6917" width="15.5" customWidth="1"/>
-    <col min="6918" max="6920" width="15.625" customWidth="1"/>
-    <col min="7169" max="7169" width="24.75" customWidth="1"/>
-    <col min="7170" max="7170" width="8.875" customWidth="1"/>
-    <col min="7171" max="7171" width="9.875" customWidth="1"/>
-    <col min="7173" max="7173" width="15.5" customWidth="1"/>
-    <col min="7174" max="7176" width="15.625" customWidth="1"/>
-    <col min="7425" max="7425" width="24.75" customWidth="1"/>
-    <col min="7426" max="7426" width="8.875" customWidth="1"/>
-    <col min="7427" max="7427" width="9.875" customWidth="1"/>
-    <col min="7429" max="7429" width="15.5" customWidth="1"/>
-    <col min="7430" max="7432" width="15.625" customWidth="1"/>
-    <col min="7681" max="7681" width="24.75" customWidth="1"/>
-    <col min="7682" max="7682" width="8.875" customWidth="1"/>
-    <col min="7683" max="7683" width="9.875" customWidth="1"/>
-    <col min="7685" max="7685" width="15.5" customWidth="1"/>
-    <col min="7686" max="7688" width="15.625" customWidth="1"/>
-    <col min="7937" max="7937" width="24.75" customWidth="1"/>
-    <col min="7938" max="7938" width="8.875" customWidth="1"/>
-    <col min="7939" max="7939" width="9.875" customWidth="1"/>
-    <col min="7941" max="7941" width="15.5" customWidth="1"/>
-    <col min="7942" max="7944" width="15.625" customWidth="1"/>
-    <col min="8193" max="8193" width="24.75" customWidth="1"/>
-    <col min="8194" max="8194" width="8.875" customWidth="1"/>
-    <col min="8195" max="8195" width="9.875" customWidth="1"/>
-    <col min="8197" max="8197" width="15.5" customWidth="1"/>
-    <col min="8198" max="8200" width="15.625" customWidth="1"/>
-    <col min="8449" max="8449" width="24.75" customWidth="1"/>
-    <col min="8450" max="8450" width="8.875" customWidth="1"/>
-    <col min="8451" max="8451" width="9.875" customWidth="1"/>
-    <col min="8453" max="8453" width="15.5" customWidth="1"/>
-    <col min="8454" max="8456" width="15.625" customWidth="1"/>
-    <col min="8705" max="8705" width="24.75" customWidth="1"/>
-    <col min="8706" max="8706" width="8.875" customWidth="1"/>
-    <col min="8707" max="8707" width="9.875" customWidth="1"/>
-    <col min="8709" max="8709" width="15.5" customWidth="1"/>
-    <col min="8710" max="8712" width="15.625" customWidth="1"/>
-    <col min="8961" max="8961" width="24.75" customWidth="1"/>
-    <col min="8962" max="8962" width="8.875" customWidth="1"/>
-    <col min="8963" max="8963" width="9.875" customWidth="1"/>
-    <col min="8965" max="8965" width="15.5" customWidth="1"/>
-    <col min="8966" max="8968" width="15.625" customWidth="1"/>
-    <col min="9217" max="9217" width="24.75" customWidth="1"/>
-    <col min="9218" max="9218" width="8.875" customWidth="1"/>
-    <col min="9219" max="9219" width="9.875" customWidth="1"/>
-    <col min="9221" max="9221" width="15.5" customWidth="1"/>
-    <col min="9222" max="9224" width="15.625" customWidth="1"/>
-    <col min="9473" max="9473" width="24.75" customWidth="1"/>
-    <col min="9474" max="9474" width="8.875" customWidth="1"/>
-    <col min="9475" max="9475" width="9.875" customWidth="1"/>
-    <col min="9477" max="9477" width="15.5" customWidth="1"/>
-    <col min="9478" max="9480" width="15.625" customWidth="1"/>
-    <col min="9729" max="9729" width="24.75" customWidth="1"/>
-    <col min="9730" max="9730" width="8.875" customWidth="1"/>
-    <col min="9731" max="9731" width="9.875" customWidth="1"/>
-    <col min="9733" max="9733" width="15.5" customWidth="1"/>
-    <col min="9734" max="9736" width="15.625" customWidth="1"/>
-    <col min="9985" max="9985" width="24.75" customWidth="1"/>
-    <col min="9986" max="9986" width="8.875" customWidth="1"/>
-    <col min="9987" max="9987" width="9.875" customWidth="1"/>
-    <col min="9989" max="9989" width="15.5" customWidth="1"/>
-    <col min="9990" max="9992" width="15.625" customWidth="1"/>
-    <col min="10241" max="10241" width="24.75" customWidth="1"/>
-    <col min="10242" max="10242" width="8.875" customWidth="1"/>
-    <col min="10243" max="10243" width="9.875" customWidth="1"/>
-    <col min="10245" max="10245" width="15.5" customWidth="1"/>
-    <col min="10246" max="10248" width="15.625" customWidth="1"/>
-    <col min="10497" max="10497" width="24.75" customWidth="1"/>
-    <col min="10498" max="10498" width="8.875" customWidth="1"/>
-    <col min="10499" max="10499" width="9.875" customWidth="1"/>
-    <col min="10501" max="10501" width="15.5" customWidth="1"/>
-    <col min="10502" max="10504" width="15.625" customWidth="1"/>
-    <col min="10753" max="10753" width="24.75" customWidth="1"/>
-    <col min="10754" max="10754" width="8.875" customWidth="1"/>
-    <col min="10755" max="10755" width="9.875" customWidth="1"/>
-    <col min="10757" max="10757" width="15.5" customWidth="1"/>
-    <col min="10758" max="10760" width="15.625" customWidth="1"/>
-    <col min="11009" max="11009" width="24.75" customWidth="1"/>
-    <col min="11010" max="11010" width="8.875" customWidth="1"/>
-    <col min="11011" max="11011" width="9.875" customWidth="1"/>
-    <col min="11013" max="11013" width="15.5" customWidth="1"/>
-    <col min="11014" max="11016" width="15.625" customWidth="1"/>
-    <col min="11265" max="11265" width="24.75" customWidth="1"/>
-    <col min="11266" max="11266" width="8.875" customWidth="1"/>
-    <col min="11267" max="11267" width="9.875" customWidth="1"/>
-    <col min="11269" max="11269" width="15.5" customWidth="1"/>
-    <col min="11270" max="11272" width="15.625" customWidth="1"/>
-    <col min="11521" max="11521" width="24.75" customWidth="1"/>
-    <col min="11522" max="11522" width="8.875" customWidth="1"/>
-    <col min="11523" max="11523" width="9.875" customWidth="1"/>
-    <col min="11525" max="11525" width="15.5" customWidth="1"/>
-    <col min="11526" max="11528" width="15.625" customWidth="1"/>
-    <col min="11777" max="11777" width="24.75" customWidth="1"/>
-    <col min="11778" max="11778" width="8.875" customWidth="1"/>
-    <col min="11779" max="11779" width="9.875" customWidth="1"/>
-    <col min="11781" max="11781" width="15.5" customWidth="1"/>
-    <col min="11782" max="11784" width="15.625" customWidth="1"/>
-    <col min="12033" max="12033" width="24.75" customWidth="1"/>
-    <col min="12034" max="12034" width="8.875" customWidth="1"/>
-    <col min="12035" max="12035" width="9.875" customWidth="1"/>
-    <col min="12037" max="12037" width="15.5" customWidth="1"/>
-    <col min="12038" max="12040" width="15.625" customWidth="1"/>
-    <col min="12289" max="12289" width="24.75" customWidth="1"/>
-    <col min="12290" max="12290" width="8.875" customWidth="1"/>
-    <col min="12291" max="12291" width="9.875" customWidth="1"/>
-    <col min="12293" max="12293" width="15.5" customWidth="1"/>
-    <col min="12294" max="12296" width="15.625" customWidth="1"/>
-    <col min="12545" max="12545" width="24.75" customWidth="1"/>
-    <col min="12546" max="12546" width="8.875" customWidth="1"/>
-    <col min="12547" max="12547" width="9.875" customWidth="1"/>
-    <col min="12549" max="12549" width="15.5" customWidth="1"/>
-    <col min="12550" max="12552" width="15.625" customWidth="1"/>
-    <col min="12801" max="12801" width="24.75" customWidth="1"/>
-    <col min="12802" max="12802" width="8.875" customWidth="1"/>
-    <col min="12803" max="12803" width="9.875" customWidth="1"/>
-    <col min="12805" max="12805" width="15.5" customWidth="1"/>
-    <col min="12806" max="12808" width="15.625" customWidth="1"/>
-    <col min="13057" max="13057" width="24.75" customWidth="1"/>
-    <col min="13058" max="13058" width="8.875" customWidth="1"/>
-    <col min="13059" max="13059" width="9.875" customWidth="1"/>
-    <col min="13061" max="13061" width="15.5" customWidth="1"/>
-    <col min="13062" max="13064" width="15.625" customWidth="1"/>
-    <col min="13313" max="13313" width="24.75" customWidth="1"/>
-    <col min="13314" max="13314" width="8.875" customWidth="1"/>
-    <col min="13315" max="13315" width="9.875" customWidth="1"/>
-    <col min="13317" max="13317" width="15.5" customWidth="1"/>
-    <col min="13318" max="13320" width="15.625" customWidth="1"/>
-    <col min="13569" max="13569" width="24.75" customWidth="1"/>
-    <col min="13570" max="13570" width="8.875" customWidth="1"/>
-    <col min="13571" max="13571" width="9.875" customWidth="1"/>
-    <col min="13573" max="13573" width="15.5" customWidth="1"/>
-    <col min="13574" max="13576" width="15.625" customWidth="1"/>
-    <col min="13825" max="13825" width="24.75" customWidth="1"/>
-    <col min="13826" max="13826" width="8.875" customWidth="1"/>
-    <col min="13827" max="13827" width="9.875" customWidth="1"/>
-    <col min="13829" max="13829" width="15.5" customWidth="1"/>
-    <col min="13830" max="13832" width="15.625" customWidth="1"/>
-    <col min="14081" max="14081" width="24.75" customWidth="1"/>
-    <col min="14082" max="14082" width="8.875" customWidth="1"/>
-    <col min="14083" max="14083" width="9.875" customWidth="1"/>
-    <col min="14085" max="14085" width="15.5" customWidth="1"/>
-    <col min="14086" max="14088" width="15.625" customWidth="1"/>
-    <col min="14337" max="14337" width="24.75" customWidth="1"/>
-    <col min="14338" max="14338" width="8.875" customWidth="1"/>
-    <col min="14339" max="14339" width="9.875" customWidth="1"/>
-    <col min="14341" max="14341" width="15.5" customWidth="1"/>
-    <col min="14342" max="14344" width="15.625" customWidth="1"/>
-    <col min="14593" max="14593" width="24.75" customWidth="1"/>
-    <col min="14594" max="14594" width="8.875" customWidth="1"/>
-    <col min="14595" max="14595" width="9.875" customWidth="1"/>
-    <col min="14597" max="14597" width="15.5" customWidth="1"/>
-    <col min="14598" max="14600" width="15.625" customWidth="1"/>
-    <col min="14849" max="14849" width="24.75" customWidth="1"/>
-    <col min="14850" max="14850" width="8.875" customWidth="1"/>
-    <col min="14851" max="14851" width="9.875" customWidth="1"/>
-    <col min="14853" max="14853" width="15.5" customWidth="1"/>
-    <col min="14854" max="14856" width="15.625" customWidth="1"/>
-    <col min="15105" max="15105" width="24.75" customWidth="1"/>
-    <col min="15106" max="15106" width="8.875" customWidth="1"/>
-    <col min="15107" max="15107" width="9.875" customWidth="1"/>
-    <col min="15109" max="15109" width="15.5" customWidth="1"/>
-    <col min="15110" max="15112" width="15.625" customWidth="1"/>
-    <col min="15361" max="15361" width="24.75" customWidth="1"/>
-    <col min="15362" max="15362" width="8.875" customWidth="1"/>
-    <col min="15363" max="15363" width="9.875" customWidth="1"/>
-    <col min="15365" max="15365" width="15.5" customWidth="1"/>
-    <col min="15366" max="15368" width="15.625" customWidth="1"/>
-    <col min="15617" max="15617" width="24.75" customWidth="1"/>
-    <col min="15618" max="15618" width="8.875" customWidth="1"/>
-    <col min="15619" max="15619" width="9.875" customWidth="1"/>
-    <col min="15621" max="15621" width="15.5" customWidth="1"/>
-    <col min="15622" max="15624" width="15.625" customWidth="1"/>
-    <col min="15873" max="15873" width="24.75" customWidth="1"/>
-    <col min="15874" max="15874" width="8.875" customWidth="1"/>
-    <col min="15875" max="15875" width="9.875" customWidth="1"/>
-    <col min="15877" max="15877" width="15.5" customWidth="1"/>
-    <col min="15878" max="15880" width="15.625" customWidth="1"/>
-    <col min="16129" max="16129" width="24.75" customWidth="1"/>
-    <col min="16130" max="16130" width="8.875" customWidth="1"/>
-    <col min="16131" max="16131" width="9.875" customWidth="1"/>
-    <col min="16133" max="16133" width="15.5" customWidth="1"/>
-    <col min="16134" max="16136" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="15.625" customWidth="1"/>
+    <col min="258" max="258" width="24.75" customWidth="1"/>
+    <col min="259" max="259" width="8.875" customWidth="1"/>
+    <col min="260" max="260" width="9.875" customWidth="1"/>
+    <col min="262" max="262" width="15.5" customWidth="1"/>
+    <col min="263" max="265" width="15.625" customWidth="1"/>
+    <col min="514" max="514" width="24.75" customWidth="1"/>
+    <col min="515" max="515" width="8.875" customWidth="1"/>
+    <col min="516" max="516" width="9.875" customWidth="1"/>
+    <col min="518" max="518" width="15.5" customWidth="1"/>
+    <col min="519" max="521" width="15.625" customWidth="1"/>
+    <col min="770" max="770" width="24.75" customWidth="1"/>
+    <col min="771" max="771" width="8.875" customWidth="1"/>
+    <col min="772" max="772" width="9.875" customWidth="1"/>
+    <col min="774" max="774" width="15.5" customWidth="1"/>
+    <col min="775" max="777" width="15.625" customWidth="1"/>
+    <col min="1026" max="1026" width="24.75" customWidth="1"/>
+    <col min="1027" max="1027" width="8.875" customWidth="1"/>
+    <col min="1028" max="1028" width="9.875" customWidth="1"/>
+    <col min="1030" max="1030" width="15.5" customWidth="1"/>
+    <col min="1031" max="1033" width="15.625" customWidth="1"/>
+    <col min="1282" max="1282" width="24.75" customWidth="1"/>
+    <col min="1283" max="1283" width="8.875" customWidth="1"/>
+    <col min="1284" max="1284" width="9.875" customWidth="1"/>
+    <col min="1286" max="1286" width="15.5" customWidth="1"/>
+    <col min="1287" max="1289" width="15.625" customWidth="1"/>
+    <col min="1538" max="1538" width="24.75" customWidth="1"/>
+    <col min="1539" max="1539" width="8.875" customWidth="1"/>
+    <col min="1540" max="1540" width="9.875" customWidth="1"/>
+    <col min="1542" max="1542" width="15.5" customWidth="1"/>
+    <col min="1543" max="1545" width="15.625" customWidth="1"/>
+    <col min="1794" max="1794" width="24.75" customWidth="1"/>
+    <col min="1795" max="1795" width="8.875" customWidth="1"/>
+    <col min="1796" max="1796" width="9.875" customWidth="1"/>
+    <col min="1798" max="1798" width="15.5" customWidth="1"/>
+    <col min="1799" max="1801" width="15.625" customWidth="1"/>
+    <col min="2050" max="2050" width="24.75" customWidth="1"/>
+    <col min="2051" max="2051" width="8.875" customWidth="1"/>
+    <col min="2052" max="2052" width="9.875" customWidth="1"/>
+    <col min="2054" max="2054" width="15.5" customWidth="1"/>
+    <col min="2055" max="2057" width="15.625" customWidth="1"/>
+    <col min="2306" max="2306" width="24.75" customWidth="1"/>
+    <col min="2307" max="2307" width="8.875" customWidth="1"/>
+    <col min="2308" max="2308" width="9.875" customWidth="1"/>
+    <col min="2310" max="2310" width="15.5" customWidth="1"/>
+    <col min="2311" max="2313" width="15.625" customWidth="1"/>
+    <col min="2562" max="2562" width="24.75" customWidth="1"/>
+    <col min="2563" max="2563" width="8.875" customWidth="1"/>
+    <col min="2564" max="2564" width="9.875" customWidth="1"/>
+    <col min="2566" max="2566" width="15.5" customWidth="1"/>
+    <col min="2567" max="2569" width="15.625" customWidth="1"/>
+    <col min="2818" max="2818" width="24.75" customWidth="1"/>
+    <col min="2819" max="2819" width="8.875" customWidth="1"/>
+    <col min="2820" max="2820" width="9.875" customWidth="1"/>
+    <col min="2822" max="2822" width="15.5" customWidth="1"/>
+    <col min="2823" max="2825" width="15.625" customWidth="1"/>
+    <col min="3074" max="3074" width="24.75" customWidth="1"/>
+    <col min="3075" max="3075" width="8.875" customWidth="1"/>
+    <col min="3076" max="3076" width="9.875" customWidth="1"/>
+    <col min="3078" max="3078" width="15.5" customWidth="1"/>
+    <col min="3079" max="3081" width="15.625" customWidth="1"/>
+    <col min="3330" max="3330" width="24.75" customWidth="1"/>
+    <col min="3331" max="3331" width="8.875" customWidth="1"/>
+    <col min="3332" max="3332" width="9.875" customWidth="1"/>
+    <col min="3334" max="3334" width="15.5" customWidth="1"/>
+    <col min="3335" max="3337" width="15.625" customWidth="1"/>
+    <col min="3586" max="3586" width="24.75" customWidth="1"/>
+    <col min="3587" max="3587" width="8.875" customWidth="1"/>
+    <col min="3588" max="3588" width="9.875" customWidth="1"/>
+    <col min="3590" max="3590" width="15.5" customWidth="1"/>
+    <col min="3591" max="3593" width="15.625" customWidth="1"/>
+    <col min="3842" max="3842" width="24.75" customWidth="1"/>
+    <col min="3843" max="3843" width="8.875" customWidth="1"/>
+    <col min="3844" max="3844" width="9.875" customWidth="1"/>
+    <col min="3846" max="3846" width="15.5" customWidth="1"/>
+    <col min="3847" max="3849" width="15.625" customWidth="1"/>
+    <col min="4098" max="4098" width="24.75" customWidth="1"/>
+    <col min="4099" max="4099" width="8.875" customWidth="1"/>
+    <col min="4100" max="4100" width="9.875" customWidth="1"/>
+    <col min="4102" max="4102" width="15.5" customWidth="1"/>
+    <col min="4103" max="4105" width="15.625" customWidth="1"/>
+    <col min="4354" max="4354" width="24.75" customWidth="1"/>
+    <col min="4355" max="4355" width="8.875" customWidth="1"/>
+    <col min="4356" max="4356" width="9.875" customWidth="1"/>
+    <col min="4358" max="4358" width="15.5" customWidth="1"/>
+    <col min="4359" max="4361" width="15.625" customWidth="1"/>
+    <col min="4610" max="4610" width="24.75" customWidth="1"/>
+    <col min="4611" max="4611" width="8.875" customWidth="1"/>
+    <col min="4612" max="4612" width="9.875" customWidth="1"/>
+    <col min="4614" max="4614" width="15.5" customWidth="1"/>
+    <col min="4615" max="4617" width="15.625" customWidth="1"/>
+    <col min="4866" max="4866" width="24.75" customWidth="1"/>
+    <col min="4867" max="4867" width="8.875" customWidth="1"/>
+    <col min="4868" max="4868" width="9.875" customWidth="1"/>
+    <col min="4870" max="4870" width="15.5" customWidth="1"/>
+    <col min="4871" max="4873" width="15.625" customWidth="1"/>
+    <col min="5122" max="5122" width="24.75" customWidth="1"/>
+    <col min="5123" max="5123" width="8.875" customWidth="1"/>
+    <col min="5124" max="5124" width="9.875" customWidth="1"/>
+    <col min="5126" max="5126" width="15.5" customWidth="1"/>
+    <col min="5127" max="5129" width="15.625" customWidth="1"/>
+    <col min="5378" max="5378" width="24.75" customWidth="1"/>
+    <col min="5379" max="5379" width="8.875" customWidth="1"/>
+    <col min="5380" max="5380" width="9.875" customWidth="1"/>
+    <col min="5382" max="5382" width="15.5" customWidth="1"/>
+    <col min="5383" max="5385" width="15.625" customWidth="1"/>
+    <col min="5634" max="5634" width="24.75" customWidth="1"/>
+    <col min="5635" max="5635" width="8.875" customWidth="1"/>
+    <col min="5636" max="5636" width="9.875" customWidth="1"/>
+    <col min="5638" max="5638" width="15.5" customWidth="1"/>
+    <col min="5639" max="5641" width="15.625" customWidth="1"/>
+    <col min="5890" max="5890" width="24.75" customWidth="1"/>
+    <col min="5891" max="5891" width="8.875" customWidth="1"/>
+    <col min="5892" max="5892" width="9.875" customWidth="1"/>
+    <col min="5894" max="5894" width="15.5" customWidth="1"/>
+    <col min="5895" max="5897" width="15.625" customWidth="1"/>
+    <col min="6146" max="6146" width="24.75" customWidth="1"/>
+    <col min="6147" max="6147" width="8.875" customWidth="1"/>
+    <col min="6148" max="6148" width="9.875" customWidth="1"/>
+    <col min="6150" max="6150" width="15.5" customWidth="1"/>
+    <col min="6151" max="6153" width="15.625" customWidth="1"/>
+    <col min="6402" max="6402" width="24.75" customWidth="1"/>
+    <col min="6403" max="6403" width="8.875" customWidth="1"/>
+    <col min="6404" max="6404" width="9.875" customWidth="1"/>
+    <col min="6406" max="6406" width="15.5" customWidth="1"/>
+    <col min="6407" max="6409" width="15.625" customWidth="1"/>
+    <col min="6658" max="6658" width="24.75" customWidth="1"/>
+    <col min="6659" max="6659" width="8.875" customWidth="1"/>
+    <col min="6660" max="6660" width="9.875" customWidth="1"/>
+    <col min="6662" max="6662" width="15.5" customWidth="1"/>
+    <col min="6663" max="6665" width="15.625" customWidth="1"/>
+    <col min="6914" max="6914" width="24.75" customWidth="1"/>
+    <col min="6915" max="6915" width="8.875" customWidth="1"/>
+    <col min="6916" max="6916" width="9.875" customWidth="1"/>
+    <col min="6918" max="6918" width="15.5" customWidth="1"/>
+    <col min="6919" max="6921" width="15.625" customWidth="1"/>
+    <col min="7170" max="7170" width="24.75" customWidth="1"/>
+    <col min="7171" max="7171" width="8.875" customWidth="1"/>
+    <col min="7172" max="7172" width="9.875" customWidth="1"/>
+    <col min="7174" max="7174" width="15.5" customWidth="1"/>
+    <col min="7175" max="7177" width="15.625" customWidth="1"/>
+    <col min="7426" max="7426" width="24.75" customWidth="1"/>
+    <col min="7427" max="7427" width="8.875" customWidth="1"/>
+    <col min="7428" max="7428" width="9.875" customWidth="1"/>
+    <col min="7430" max="7430" width="15.5" customWidth="1"/>
+    <col min="7431" max="7433" width="15.625" customWidth="1"/>
+    <col min="7682" max="7682" width="24.75" customWidth="1"/>
+    <col min="7683" max="7683" width="8.875" customWidth="1"/>
+    <col min="7684" max="7684" width="9.875" customWidth="1"/>
+    <col min="7686" max="7686" width="15.5" customWidth="1"/>
+    <col min="7687" max="7689" width="15.625" customWidth="1"/>
+    <col min="7938" max="7938" width="24.75" customWidth="1"/>
+    <col min="7939" max="7939" width="8.875" customWidth="1"/>
+    <col min="7940" max="7940" width="9.875" customWidth="1"/>
+    <col min="7942" max="7942" width="15.5" customWidth="1"/>
+    <col min="7943" max="7945" width="15.625" customWidth="1"/>
+    <col min="8194" max="8194" width="24.75" customWidth="1"/>
+    <col min="8195" max="8195" width="8.875" customWidth="1"/>
+    <col min="8196" max="8196" width="9.875" customWidth="1"/>
+    <col min="8198" max="8198" width="15.5" customWidth="1"/>
+    <col min="8199" max="8201" width="15.625" customWidth="1"/>
+    <col min="8450" max="8450" width="24.75" customWidth="1"/>
+    <col min="8451" max="8451" width="8.875" customWidth="1"/>
+    <col min="8452" max="8452" width="9.875" customWidth="1"/>
+    <col min="8454" max="8454" width="15.5" customWidth="1"/>
+    <col min="8455" max="8457" width="15.625" customWidth="1"/>
+    <col min="8706" max="8706" width="24.75" customWidth="1"/>
+    <col min="8707" max="8707" width="8.875" customWidth="1"/>
+    <col min="8708" max="8708" width="9.875" customWidth="1"/>
+    <col min="8710" max="8710" width="15.5" customWidth="1"/>
+    <col min="8711" max="8713" width="15.625" customWidth="1"/>
+    <col min="8962" max="8962" width="24.75" customWidth="1"/>
+    <col min="8963" max="8963" width="8.875" customWidth="1"/>
+    <col min="8964" max="8964" width="9.875" customWidth="1"/>
+    <col min="8966" max="8966" width="15.5" customWidth="1"/>
+    <col min="8967" max="8969" width="15.625" customWidth="1"/>
+    <col min="9218" max="9218" width="24.75" customWidth="1"/>
+    <col min="9219" max="9219" width="8.875" customWidth="1"/>
+    <col min="9220" max="9220" width="9.875" customWidth="1"/>
+    <col min="9222" max="9222" width="15.5" customWidth="1"/>
+    <col min="9223" max="9225" width="15.625" customWidth="1"/>
+    <col min="9474" max="9474" width="24.75" customWidth="1"/>
+    <col min="9475" max="9475" width="8.875" customWidth="1"/>
+    <col min="9476" max="9476" width="9.875" customWidth="1"/>
+    <col min="9478" max="9478" width="15.5" customWidth="1"/>
+    <col min="9479" max="9481" width="15.625" customWidth="1"/>
+    <col min="9730" max="9730" width="24.75" customWidth="1"/>
+    <col min="9731" max="9731" width="8.875" customWidth="1"/>
+    <col min="9732" max="9732" width="9.875" customWidth="1"/>
+    <col min="9734" max="9734" width="15.5" customWidth="1"/>
+    <col min="9735" max="9737" width="15.625" customWidth="1"/>
+    <col min="9986" max="9986" width="24.75" customWidth="1"/>
+    <col min="9987" max="9987" width="8.875" customWidth="1"/>
+    <col min="9988" max="9988" width="9.875" customWidth="1"/>
+    <col min="9990" max="9990" width="15.5" customWidth="1"/>
+    <col min="9991" max="9993" width="15.625" customWidth="1"/>
+    <col min="10242" max="10242" width="24.75" customWidth="1"/>
+    <col min="10243" max="10243" width="8.875" customWidth="1"/>
+    <col min="10244" max="10244" width="9.875" customWidth="1"/>
+    <col min="10246" max="10246" width="15.5" customWidth="1"/>
+    <col min="10247" max="10249" width="15.625" customWidth="1"/>
+    <col min="10498" max="10498" width="24.75" customWidth="1"/>
+    <col min="10499" max="10499" width="8.875" customWidth="1"/>
+    <col min="10500" max="10500" width="9.875" customWidth="1"/>
+    <col min="10502" max="10502" width="15.5" customWidth="1"/>
+    <col min="10503" max="10505" width="15.625" customWidth="1"/>
+    <col min="10754" max="10754" width="24.75" customWidth="1"/>
+    <col min="10755" max="10755" width="8.875" customWidth="1"/>
+    <col min="10756" max="10756" width="9.875" customWidth="1"/>
+    <col min="10758" max="10758" width="15.5" customWidth="1"/>
+    <col min="10759" max="10761" width="15.625" customWidth="1"/>
+    <col min="11010" max="11010" width="24.75" customWidth="1"/>
+    <col min="11011" max="11011" width="8.875" customWidth="1"/>
+    <col min="11012" max="11012" width="9.875" customWidth="1"/>
+    <col min="11014" max="11014" width="15.5" customWidth="1"/>
+    <col min="11015" max="11017" width="15.625" customWidth="1"/>
+    <col min="11266" max="11266" width="24.75" customWidth="1"/>
+    <col min="11267" max="11267" width="8.875" customWidth="1"/>
+    <col min="11268" max="11268" width="9.875" customWidth="1"/>
+    <col min="11270" max="11270" width="15.5" customWidth="1"/>
+    <col min="11271" max="11273" width="15.625" customWidth="1"/>
+    <col min="11522" max="11522" width="24.75" customWidth="1"/>
+    <col min="11523" max="11523" width="8.875" customWidth="1"/>
+    <col min="11524" max="11524" width="9.875" customWidth="1"/>
+    <col min="11526" max="11526" width="15.5" customWidth="1"/>
+    <col min="11527" max="11529" width="15.625" customWidth="1"/>
+    <col min="11778" max="11778" width="24.75" customWidth="1"/>
+    <col min="11779" max="11779" width="8.875" customWidth="1"/>
+    <col min="11780" max="11780" width="9.875" customWidth="1"/>
+    <col min="11782" max="11782" width="15.5" customWidth="1"/>
+    <col min="11783" max="11785" width="15.625" customWidth="1"/>
+    <col min="12034" max="12034" width="24.75" customWidth="1"/>
+    <col min="12035" max="12035" width="8.875" customWidth="1"/>
+    <col min="12036" max="12036" width="9.875" customWidth="1"/>
+    <col min="12038" max="12038" width="15.5" customWidth="1"/>
+    <col min="12039" max="12041" width="15.625" customWidth="1"/>
+    <col min="12290" max="12290" width="24.75" customWidth="1"/>
+    <col min="12291" max="12291" width="8.875" customWidth="1"/>
+    <col min="12292" max="12292" width="9.875" customWidth="1"/>
+    <col min="12294" max="12294" width="15.5" customWidth="1"/>
+    <col min="12295" max="12297" width="15.625" customWidth="1"/>
+    <col min="12546" max="12546" width="24.75" customWidth="1"/>
+    <col min="12547" max="12547" width="8.875" customWidth="1"/>
+    <col min="12548" max="12548" width="9.875" customWidth="1"/>
+    <col min="12550" max="12550" width="15.5" customWidth="1"/>
+    <col min="12551" max="12553" width="15.625" customWidth="1"/>
+    <col min="12802" max="12802" width="24.75" customWidth="1"/>
+    <col min="12803" max="12803" width="8.875" customWidth="1"/>
+    <col min="12804" max="12804" width="9.875" customWidth="1"/>
+    <col min="12806" max="12806" width="15.5" customWidth="1"/>
+    <col min="12807" max="12809" width="15.625" customWidth="1"/>
+    <col min="13058" max="13058" width="24.75" customWidth="1"/>
+    <col min="13059" max="13059" width="8.875" customWidth="1"/>
+    <col min="13060" max="13060" width="9.875" customWidth="1"/>
+    <col min="13062" max="13062" width="15.5" customWidth="1"/>
+    <col min="13063" max="13065" width="15.625" customWidth="1"/>
+    <col min="13314" max="13314" width="24.75" customWidth="1"/>
+    <col min="13315" max="13315" width="8.875" customWidth="1"/>
+    <col min="13316" max="13316" width="9.875" customWidth="1"/>
+    <col min="13318" max="13318" width="15.5" customWidth="1"/>
+    <col min="13319" max="13321" width="15.625" customWidth="1"/>
+    <col min="13570" max="13570" width="24.75" customWidth="1"/>
+    <col min="13571" max="13571" width="8.875" customWidth="1"/>
+    <col min="13572" max="13572" width="9.875" customWidth="1"/>
+    <col min="13574" max="13574" width="15.5" customWidth="1"/>
+    <col min="13575" max="13577" width="15.625" customWidth="1"/>
+    <col min="13826" max="13826" width="24.75" customWidth="1"/>
+    <col min="13827" max="13827" width="8.875" customWidth="1"/>
+    <col min="13828" max="13828" width="9.875" customWidth="1"/>
+    <col min="13830" max="13830" width="15.5" customWidth="1"/>
+    <col min="13831" max="13833" width="15.625" customWidth="1"/>
+    <col min="14082" max="14082" width="24.75" customWidth="1"/>
+    <col min="14083" max="14083" width="8.875" customWidth="1"/>
+    <col min="14084" max="14084" width="9.875" customWidth="1"/>
+    <col min="14086" max="14086" width="15.5" customWidth="1"/>
+    <col min="14087" max="14089" width="15.625" customWidth="1"/>
+    <col min="14338" max="14338" width="24.75" customWidth="1"/>
+    <col min="14339" max="14339" width="8.875" customWidth="1"/>
+    <col min="14340" max="14340" width="9.875" customWidth="1"/>
+    <col min="14342" max="14342" width="15.5" customWidth="1"/>
+    <col min="14343" max="14345" width="15.625" customWidth="1"/>
+    <col min="14594" max="14594" width="24.75" customWidth="1"/>
+    <col min="14595" max="14595" width="8.875" customWidth="1"/>
+    <col min="14596" max="14596" width="9.875" customWidth="1"/>
+    <col min="14598" max="14598" width="15.5" customWidth="1"/>
+    <col min="14599" max="14601" width="15.625" customWidth="1"/>
+    <col min="14850" max="14850" width="24.75" customWidth="1"/>
+    <col min="14851" max="14851" width="8.875" customWidth="1"/>
+    <col min="14852" max="14852" width="9.875" customWidth="1"/>
+    <col min="14854" max="14854" width="15.5" customWidth="1"/>
+    <col min="14855" max="14857" width="15.625" customWidth="1"/>
+    <col min="15106" max="15106" width="24.75" customWidth="1"/>
+    <col min="15107" max="15107" width="8.875" customWidth="1"/>
+    <col min="15108" max="15108" width="9.875" customWidth="1"/>
+    <col min="15110" max="15110" width="15.5" customWidth="1"/>
+    <col min="15111" max="15113" width="15.625" customWidth="1"/>
+    <col min="15362" max="15362" width="24.75" customWidth="1"/>
+    <col min="15363" max="15363" width="8.875" customWidth="1"/>
+    <col min="15364" max="15364" width="9.875" customWidth="1"/>
+    <col min="15366" max="15366" width="15.5" customWidth="1"/>
+    <col min="15367" max="15369" width="15.625" customWidth="1"/>
+    <col min="15618" max="15618" width="24.75" customWidth="1"/>
+    <col min="15619" max="15619" width="8.875" customWidth="1"/>
+    <col min="15620" max="15620" width="9.875" customWidth="1"/>
+    <col min="15622" max="15622" width="15.5" customWidth="1"/>
+    <col min="15623" max="15625" width="15.625" customWidth="1"/>
+    <col min="15874" max="15874" width="24.75" customWidth="1"/>
+    <col min="15875" max="15875" width="8.875" customWidth="1"/>
+    <col min="15876" max="15876" width="9.875" customWidth="1"/>
+    <col min="15878" max="15878" width="15.5" customWidth="1"/>
+    <col min="15879" max="15881" width="15.625" customWidth="1"/>
+    <col min="16130" max="16130" width="24.75" customWidth="1"/>
+    <col min="16131" max="16131" width="8.875" customWidth="1"/>
+    <col min="16132" max="16132" width="9.875" customWidth="1"/>
+    <col min="16134" max="16134" width="15.5" customWidth="1"/>
+    <col min="16135" max="16137" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -830,96 +835,103 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>12345678</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>18172</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>43739</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>43770</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>12345678901</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -928,26 +940,28 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F18"/>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18"/>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="5"/>
-      <c r="G20"/>
+      <c r="F20"/>
+      <c r="G20" s="5"/>
       <c r="H20"/>
+      <c r="I20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
